--- a/definition/xlsx/CYP2C19_allele_definition_table.xlsx
+++ b/definition/xlsx/CYP2C19_allele_definition_table.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jing/work/pharmacogenomics/PharmGKB/allele_definition_table_1_12_19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Dropbox\PhamacoProject\allele_definition_table_new_1_12_19_edit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFD3AAC-3D04-F543-9DAA-3605ABE10B68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{689BBE80-0922-804A-BE02-7AD909F4DE19}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="CYP2C19 core alleles+overlap" sheetId="1" r:id="rId1"/>
     <sheet name="CYP2C19 core alleles" sheetId="2" r:id="rId2"/>
     <sheet name="Change log" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="224">
   <si>
     <t xml:space="preserve">GENE: CYP2C19 </t>
   </si>
@@ -709,12 +708,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -726,27 +725,27 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -854,7 +853,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1165,33 +1164,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F99F1CF-FD56-3D44-8FC7-1A06999C8B48}">
-  <dimension ref="A1:DT56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.84375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.5" style="3" customWidth="1"/>
-    <col min="36" max="16384" width="14.5" style="3"/>
+    <col min="34" max="34" width="14.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.4609375" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="14.4609375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -1233,7 +1234,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="51">
+    <row r="2" spans="1:35" ht="31">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="34">
+    <row r="3" spans="1:35" ht="31">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2063,6 +2064,2384 @@
       <c r="AA12" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+    </row>
+    <row r="28" spans="1:35" ht="16" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+    </row>
+    <row r="32" spans="1:35" ht="16" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+    </row>
+    <row r="33" spans="1:124" ht="16" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+    </row>
+    <row r="34" spans="1:124" ht="16" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+    </row>
+    <row r="35" spans="1:124" ht="16" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+    </row>
+    <row r="36" spans="1:124" ht="16" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+    </row>
+    <row r="37" spans="1:124" ht="16" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+    </row>
+    <row r="38" spans="1:124" ht="16" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+    </row>
+    <row r="39" spans="1:124" ht="16" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+    </row>
+    <row r="40" spans="1:124" ht="16" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="R40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="S40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="T40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="U40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="V40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="W40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="X40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH40" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI40" s="1"/>
+    </row>
+    <row r="41" spans="1:124" ht="16" customHeight="1"/>
+    <row r="42" spans="1:124" ht="16" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:124" s="9" customFormat="1" ht="15">
+      <c r="A43" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ43" s="10"/>
+      <c r="DT43" s="11"/>
+    </row>
+    <row r="44" spans="1:124" s="9" customFormat="1" ht="15">
+      <c r="A44" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="16"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="15"/>
+      <c r="BO44" s="15"/>
+      <c r="BP44" s="15"/>
+      <c r="BQ44" s="15"/>
+      <c r="BR44" s="15"/>
+      <c r="BS44" s="15"/>
+      <c r="BT44" s="15"/>
+      <c r="BU44" s="15"/>
+      <c r="BV44" s="15"/>
+      <c r="BW44" s="15"/>
+      <c r="BX44" s="15"/>
+      <c r="BY44" s="15"/>
+      <c r="BZ44" s="15"/>
+      <c r="CA44" s="15"/>
+      <c r="CB44" s="15"/>
+      <c r="CC44" s="15"/>
+      <c r="CD44" s="15"/>
+      <c r="CE44" s="15"/>
+      <c r="CF44" s="15"/>
+      <c r="CG44" s="15"/>
+      <c r="CH44" s="15"/>
+      <c r="CI44" s="15"/>
+      <c r="CJ44" s="15"/>
+      <c r="CK44" s="15"/>
+      <c r="CL44" s="15"/>
+      <c r="CM44" s="15"/>
+      <c r="CN44" s="15"/>
+      <c r="CO44" s="15"/>
+      <c r="CP44" s="15"/>
+      <c r="CQ44" s="15"/>
+      <c r="CR44" s="15"/>
+      <c r="CS44" s="15"/>
+      <c r="CT44" s="15"/>
+      <c r="CU44" s="15"/>
+      <c r="CV44" s="15"/>
+      <c r="CW44" s="15"/>
+      <c r="CX44" s="15"/>
+      <c r="CY44" s="15"/>
+      <c r="CZ44" s="15"/>
+      <c r="DA44" s="15"/>
+      <c r="DB44" s="15"/>
+      <c r="DC44" s="15"/>
+      <c r="DD44" s="15"/>
+      <c r="DE44" s="15"/>
+      <c r="DF44" s="15"/>
+      <c r="DG44" s="15"/>
+      <c r="DH44" s="15"/>
+      <c r="DI44" s="15"/>
+      <c r="DJ44" s="15"/>
+      <c r="DK44" s="15"/>
+      <c r="DL44" s="15"/>
+      <c r="DM44" s="15"/>
+      <c r="DN44" s="15"/>
+      <c r="DO44" s="15"/>
+      <c r="DP44" s="15"/>
+      <c r="DQ44" s="15"/>
+      <c r="DR44" s="15"/>
+      <c r="DS44" s="15"/>
+      <c r="DT44" s="17"/>
+    </row>
+    <row r="45" spans="1:124" ht="16" customHeight="1">
+      <c r="A45" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:124" ht="16" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:124" ht="16" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:124" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A49" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" customHeight="1">
+      <c r="A50" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DT54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="23.15234375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="14.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.4609375" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="14.4609375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:35" ht="61" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="31">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" ht="70" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" ht="71" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -3381,16 +5760,16 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:124" s="9" customFormat="1">
+    <row r="44" spans="1:124" s="9" customFormat="1" ht="15">
       <c r="A44" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="BJ44" s="10"/>
       <c r="DT44" s="11"/>
     </row>
-    <row r="45" spans="1:124" s="9" customFormat="1">
+    <row r="45" spans="1:124" s="9" customFormat="1" ht="15">
       <c r="A45" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3517,2425 +5896,6 @@
       <c r="DT45" s="17"/>
     </row>
     <row r="46" spans="1:124" ht="16" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:124" ht="16" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:124" ht="16" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A50" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1">
-      <c r="A51" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C3F1B5-0957-EF43-8699-490790A1F4BF}">
-  <dimension ref="A1:DT54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="23.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.5" style="3" customWidth="1"/>
-    <col min="36" max="16384" width="14.5" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-    </row>
-    <row r="2" spans="1:35" ht="61" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="34">
-      <c r="A3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:35" ht="70" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="1:35" ht="71" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI5" s="1"/>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-    </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-    </row>
-    <row r="16" spans="1:35">
-      <c r="A16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-    </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-    </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI19" s="1"/>
-    </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-    </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-    </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-    </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-    </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-    </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-    </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-    </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-    </row>
-    <row r="28" spans="1:35" ht="16" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-    </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-    </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-    </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-    </row>
-    <row r="32" spans="1:35" ht="16" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-    </row>
-    <row r="33" spans="1:124" ht="16" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-    </row>
-    <row r="34" spans="1:124" ht="16" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-    </row>
-    <row r="35" spans="1:124" ht="16" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-    </row>
-    <row r="36" spans="1:124" ht="16" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-    </row>
-    <row r="37" spans="1:124" ht="16" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-    </row>
-    <row r="38" spans="1:124" ht="16" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-    </row>
-    <row r="39" spans="1:124" ht="16" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-    </row>
-    <row r="40" spans="1:124" ht="16" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="R40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="S40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="T40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="U40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="V40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="W40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="X40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH40" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI40" s="1"/>
-    </row>
-    <row r="41" spans="1:124" ht="16" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:124" ht="16" customHeight="1"/>
-    <row r="43" spans="1:124" ht="16" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:124" s="9" customFormat="1">
-      <c r="A44" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="BJ44" s="10"/>
-      <c r="DT44" s="11"/>
-    </row>
-    <row r="45" spans="1:124" s="9" customFormat="1">
-      <c r="A45" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
-      <c r="AH45" s="15"/>
-      <c r="AI45" s="15"/>
-      <c r="AJ45" s="15"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="15"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="15"/>
-      <c r="AO45" s="15"/>
-      <c r="AP45" s="15"/>
-      <c r="AQ45" s="15"/>
-      <c r="AR45" s="15"/>
-      <c r="AS45" s="15"/>
-      <c r="AT45" s="15"/>
-      <c r="AU45" s="15"/>
-      <c r="AV45" s="15"/>
-      <c r="AW45" s="15"/>
-      <c r="AX45" s="15"/>
-      <c r="AY45" s="15"/>
-      <c r="AZ45" s="15"/>
-      <c r="BA45" s="15"/>
-      <c r="BB45" s="15"/>
-      <c r="BC45" s="15"/>
-      <c r="BD45" s="15"/>
-      <c r="BE45" s="15"/>
-      <c r="BF45" s="15"/>
-      <c r="BG45" s="15"/>
-      <c r="BH45" s="15"/>
-      <c r="BI45" s="15"/>
-      <c r="BJ45" s="16"/>
-      <c r="BK45" s="15"/>
-      <c r="BL45" s="15"/>
-      <c r="BM45" s="15"/>
-      <c r="BN45" s="15"/>
-      <c r="BO45" s="15"/>
-      <c r="BP45" s="15"/>
-      <c r="BQ45" s="15"/>
-      <c r="BR45" s="15"/>
-      <c r="BS45" s="15"/>
-      <c r="BT45" s="15"/>
-      <c r="BU45" s="15"/>
-      <c r="BV45" s="15"/>
-      <c r="BW45" s="15"/>
-      <c r="BX45" s="15"/>
-      <c r="BY45" s="15"/>
-      <c r="BZ45" s="15"/>
-      <c r="CA45" s="15"/>
-      <c r="CB45" s="15"/>
-      <c r="CC45" s="15"/>
-      <c r="CD45" s="15"/>
-      <c r="CE45" s="15"/>
-      <c r="CF45" s="15"/>
-      <c r="CG45" s="15"/>
-      <c r="CH45" s="15"/>
-      <c r="CI45" s="15"/>
-      <c r="CJ45" s="15"/>
-      <c r="CK45" s="15"/>
-      <c r="CL45" s="15"/>
-      <c r="CM45" s="15"/>
-      <c r="CN45" s="15"/>
-      <c r="CO45" s="15"/>
-      <c r="CP45" s="15"/>
-      <c r="CQ45" s="15"/>
-      <c r="CR45" s="15"/>
-      <c r="CS45" s="15"/>
-      <c r="CT45" s="15"/>
-      <c r="CU45" s="15"/>
-      <c r="CV45" s="15"/>
-      <c r="CW45" s="15"/>
-      <c r="CX45" s="15"/>
-      <c r="CY45" s="15"/>
-      <c r="CZ45" s="15"/>
-      <c r="DA45" s="15"/>
-      <c r="DB45" s="15"/>
-      <c r="DC45" s="15"/>
-      <c r="DD45" s="15"/>
-      <c r="DE45" s="15"/>
-      <c r="DF45" s="15"/>
-      <c r="DG45" s="15"/>
-      <c r="DH45" s="15"/>
-      <c r="DI45" s="15"/>
-      <c r="DJ45" s="15"/>
-      <c r="DK45" s="15"/>
-      <c r="DL45" s="15"/>
-      <c r="DM45" s="15"/>
-      <c r="DN45" s="15"/>
-      <c r="DO45" s="15"/>
-      <c r="DP45" s="15"/>
-      <c r="DQ45" s="15"/>
-      <c r="DR45" s="15"/>
-      <c r="DS45" s="15"/>
-      <c r="DT45" s="17"/>
-    </row>
-    <row r="46" spans="1:124" ht="16" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>170</v>
       </c>
@@ -6002,14 +5962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC12C976-C984-BD4E-96B9-E96CD11CE5B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20">
